--- a/Area_de_Proceso-_REQM/LMREQM/LMREQM_V1.0_2015_F.xlsx
+++ b/Area_de_Proceso-_REQM/LMREQM/LMREQM_V1.0_2015_F.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Shadow\_UTP\2015-III\PDS1\REQM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Downloads\UTP-GPS-ALARM-master\Area_de_Proceso-_REQM\LMREQM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="24000" windowHeight="9720" tabRatio="767" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="767" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="34" r:id="rId1"/>
@@ -44,15 +44,15 @@
     <definedName name="TARIFA_VIGENTE">#REF!</definedName>
     <definedName name="TipoDeDesarrollo">'Diccionario de atributos-valor'!#REF!</definedName>
     <definedName name="TipoDeFlujo">'Diccionario de atributos-valor'!#REF!</definedName>
-    <definedName name="TipoProyecto">'Diccionario de atributos-valor'!$E$20:$E$25</definedName>
+    <definedName name="TipoProyecto">'Diccionario de atributos-valor'!$E$20:$E$23</definedName>
     <definedName name="TipoRequerimientoDeSistema">'Diccionario de atributos-valor'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="171">
   <si>
     <t>Color</t>
   </si>
@@ -410,9 +410,6 @@
 - Solicitud de cambio</t>
   </si>
   <si>
-    <t>REQ1</t>
-  </si>
-  <si>
     <t>Observaciones que realiza el usuario a la información de la Lista Maestra de Requerimientos.</t>
   </si>
   <si>
@@ -429,24 +426,6 @@
 Usado como referencia al requerimiento de usuario.</t>
   </si>
   <si>
-    <t>REQ2</t>
-  </si>
-  <si>
-    <t>REQ3</t>
-  </si>
-  <si>
-    <t>REQ4</t>
-  </si>
-  <si>
-    <t>REQ5</t>
-  </si>
-  <si>
-    <t>REQ6</t>
-  </si>
-  <si>
-    <t>REQ7</t>
-  </si>
-  <si>
     <t>Hoja "Observaciones a la LMR"</t>
   </si>
   <si>
@@ -477,28 +456,10 @@
     <t>Fecha Efectiva: 13/10/2015</t>
   </si>
   <si>
-    <t>Ingenieria</t>
-  </si>
-  <si>
     <t>Gestion</t>
   </si>
   <si>
-    <t>Construccion</t>
-  </si>
-  <si>
     <t>Roger Apaestegui (Jefe de Proyecto)</t>
-  </si>
-  <si>
-    <t>Modulo Configuración Alarma</t>
-  </si>
-  <si>
-    <t>Modulo de Ajustes de la Configuración</t>
-  </si>
-  <si>
-    <t>Modulo Lista de Alarmas</t>
-  </si>
-  <si>
-    <t>Modulo Mapa GPS</t>
   </si>
   <si>
     <t>Julio Leonardo</t>
@@ -603,15 +564,138 @@
   <si>
     <t>DICCIONARIO DE ATRIBUTOS DE LA LISTA DE REQUERIMIENTOS</t>
   </si>
+  <si>
+    <t xml:space="preserve"> MODULO CONFIGURA TU ALARMA</t>
+  </si>
+  <si>
+    <t>Vista por satélite del mapa e información de tráfico en el mapa</t>
+  </si>
+  <si>
+    <t>Centrar el mapa con su ubicación actual</t>
+  </si>
+  <si>
+    <t>Obtener los mapas a través del servicio proporcionado por Google Maps</t>
+  </si>
+  <si>
+    <t>Cálculo de distancia hasta el destino</t>
+  </si>
+  <si>
+    <t>Mostrar rango de Alarma en el Mapa</t>
+  </si>
+  <si>
+    <t>Soporte de Archivos MP3 para sonidos de Alarma</t>
+  </si>
+  <si>
+    <t>Activar la función de vibración del dispositivo móvil en las Alarmas</t>
+  </si>
+  <si>
+    <t>MÓDULO AJUSTES DE LA APLICACIÓN</t>
+  </si>
+  <si>
+    <t>Acceso al Panel de Configuración de la Aplicación</t>
+  </si>
+  <si>
+    <t>Soporte de Idiomas Inglés y Español</t>
+  </si>
+  <si>
+    <t>Migración de Registro de Rutas Personalizadas por cambio de Dispositivo Móvil</t>
+  </si>
+  <si>
+    <t>MÓDULO LISTA DE ALARMAS</t>
+  </si>
+  <si>
+    <t>Administración de múltiples registros de Alarmas</t>
+  </si>
+  <si>
+    <t>PROGRAMACIÓN INTERNA (NO ES MÓDULO)</t>
+  </si>
+  <si>
+    <t>Control de Piratería de la Aplicación</t>
+  </si>
+  <si>
+    <t>Obtención de Ubicación para emitir alarma en función de la posición</t>
+  </si>
+  <si>
+    <t>Conprobación de Seguridad con el Muestreo de la Licencia</t>
+  </si>
+  <si>
+    <t>Ahorro de Energía</t>
+  </si>
+  <si>
+    <t>REQ 1</t>
+  </si>
+  <si>
+    <t>REQ 1.1</t>
+  </si>
+  <si>
+    <t>REQ 1.2</t>
+  </si>
+  <si>
+    <t>REQ 1.3</t>
+  </si>
+  <si>
+    <t>REQ 1.4</t>
+  </si>
+  <si>
+    <t>REQ 1.5</t>
+  </si>
+  <si>
+    <t>REQ 1.6</t>
+  </si>
+  <si>
+    <t>REQ 1.7</t>
+  </si>
+  <si>
+    <t>REQ 2</t>
+  </si>
+  <si>
+    <t>REQ 2.1</t>
+  </si>
+  <si>
+    <t>REQ 2.2</t>
+  </si>
+  <si>
+    <t>REQ 2.3</t>
+  </si>
+  <si>
+    <t>REQ 3</t>
+  </si>
+  <si>
+    <t>REQ 3.1</t>
+  </si>
+  <si>
+    <t>REQ 4</t>
+  </si>
+  <si>
+    <t>REQ 4.1</t>
+  </si>
+  <si>
+    <t>REQ 4.2</t>
+  </si>
+  <si>
+    <t>REQ 4.3</t>
+  </si>
+  <si>
+    <t>REQ 4.4</t>
+  </si>
+  <si>
+    <t>Construcción</t>
+  </si>
+  <si>
+    <t>Ingeniería</t>
+  </si>
+  <si>
+    <t>1 día</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -789,6 +873,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -828,7 +919,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -926,7 +1017,232 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -938,9 +1254,33 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -951,7 +1291,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -960,31 +1300,26 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -999,7 +1334,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1138,9 +1473,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1183,15 +1515,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1232,249 +1555,10 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1485,114 +1569,454 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2350,7 +2774,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2377,15 +2801,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="55"/>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
       <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:9">
@@ -2401,63 +2825,63 @@
     </row>
     <row r="4" spans="1:9" ht="33" customHeight="1">
       <c r="A4" s="55"/>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="70" t="s">
         <v>54</v>
       </c>
       <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="55"/>
-      <c r="B5" s="98">
+      <c r="B5" s="101">
         <v>1</v>
       </c>
-      <c r="C5" s="99">
+      <c r="C5" s="102">
         <v>1</v>
       </c>
-      <c r="D5" s="100">
+      <c r="D5" s="103">
         <v>42290</v>
       </c>
-      <c r="E5" s="98" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="98" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="98" t="s">
+      <c r="E5" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="98" t="s">
-        <v>137</v>
+      <c r="H5" s="101" t="s">
+        <v>124</v>
       </c>
       <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="A6" s="55"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
       <c r="I6" s="55"/>
     </row>
   </sheetData>
@@ -2482,7 +2906,7 @@
   <dimension ref="A1:IU200"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2498,107 +2922,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8" ht="48.75" customHeight="1">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="116" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="141" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="117" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-    </row>
-    <row r="4" spans="1:8" s="84" customFormat="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-    </row>
-    <row r="5" spans="1:8" s="84" customFormat="1">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80" t="s">
+      <c r="E3" s="142" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+    </row>
+    <row r="4" spans="1:8" s="80" customFormat="1">
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+    </row>
+    <row r="5" spans="1:8" s="80" customFormat="1">
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="140" t="s">
+      <c r="D6" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-    </row>
-    <row r="7" spans="1:8" s="84" customFormat="1">
-      <c r="A7" s="80"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-    </row>
-    <row r="8" spans="1:8" s="84" customFormat="1">
-      <c r="A8" s="80"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+    </row>
+    <row r="7" spans="1:8" s="80" customFormat="1">
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+    </row>
+    <row r="8" spans="1:8" s="80" customFormat="1">
+      <c r="A8" s="76"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="118" t="s">
+      <c r="D9" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="119"/>
+      <c r="E9" s="144"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="141" t="s">
+      <c r="G9" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="141"/>
+      <c r="H9" s="149"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="9"/>
@@ -2612,14 +3036,14 @@
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="120"/>
-      <c r="G11" s="142" t="s">
+      <c r="E11" s="145"/>
+      <c r="G11" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="142"/>
+      <c r="H11" s="128"/>
     </row>
     <row r="12" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A12" s="9"/>
@@ -2632,14 +3056,14 @@
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="121" t="s">
+      <c r="D13" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="121"/>
-      <c r="G13" s="142" t="s">
+      <c r="E13" s="146"/>
+      <c r="G13" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="142"/>
+      <c r="H13" s="128"/>
     </row>
     <row r="14" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A14" s="9"/>
@@ -2650,14 +3074,14 @@
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="122" t="s">
+      <c r="D15" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="122"/>
-      <c r="G15" s="142" t="s">
+      <c r="E15" s="147"/>
+      <c r="G15" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="142"/>
+      <c r="H15" s="128"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="7"/>
@@ -2668,14 +3092,14 @@
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="115" t="s">
+      <c r="D17" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="115"/>
-      <c r="G17" s="142" t="s">
+      <c r="E17" s="136"/>
+      <c r="G17" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="142"/>
+      <c r="H17" s="128"/>
     </row>
     <row r="18" spans="1:8" s="17" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="15"/>
@@ -2692,79 +3116,79 @@
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:8" s="19" customFormat="1" ht="16.5" customHeight="1">
-      <c r="D20" s="128" t="s">
+      <c r="D20" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
     </row>
     <row r="21" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D21" s="103" t="s">
+      <c r="D21" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="104"/>
-      <c r="F21" s="129" t="s">
+      <c r="E21" s="138"/>
+      <c r="F21" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
     </row>
     <row r="22" spans="1:8" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D22" s="113" t="s">
+      <c r="D22" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="114"/>
-      <c r="F22" s="143" t="s">
+      <c r="E22" s="140"/>
+      <c r="F22" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
     </row>
     <row r="23" spans="1:8" s="19" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D23" s="113" t="s">
+      <c r="D23" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="114"/>
-      <c r="F23" s="143" t="s">
+      <c r="E23" s="140"/>
+      <c r="F23" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
     </row>
     <row r="24" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D24" s="113" t="s">
+      <c r="D24" s="139" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="140"/>
+      <c r="F24" s="129" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="130"/>
+      <c r="H24" s="131"/>
+    </row>
+    <row r="25" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
+      <c r="D25" s="139" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="140"/>
+      <c r="F25" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="114"/>
-      <c r="F24" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="131"/>
-      <c r="H24" s="132"/>
-    </row>
-    <row r="25" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D25" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="114"/>
-      <c r="F25" s="143" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
     </row>
     <row r="26" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D26" s="113" t="s">
+      <c r="D26" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="114"/>
-      <c r="F26" s="143" t="s">
+      <c r="E26" s="140"/>
+      <c r="F26" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
     </row>
     <row r="27" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
       <c r="D27" s="50"/>
@@ -2781,194 +3205,194 @@
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:8" s="19" customFormat="1" ht="16.5" customHeight="1">
-      <c r="D29" s="128" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
+      <c r="D29" s="114" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
     </row>
     <row r="30" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D30" s="103" t="s">
+      <c r="D30" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="104"/>
-      <c r="F30" s="129" t="s">
+      <c r="E30" s="138"/>
+      <c r="F30" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="129"/>
-      <c r="H30" s="129"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="123" t="s">
+      <c r="D31" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="123"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="124"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="109" t="s">
+      <c r="D32" s="150" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="110"/>
-      <c r="F32" s="125" t="s">
+      <c r="E32" s="151"/>
+      <c r="F32" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="126"/>
-      <c r="H32" s="127"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="120"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="109" t="s">
+      <c r="D33" s="150" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="110"/>
-      <c r="F33" s="125" t="s">
+      <c r="E33" s="151"/>
+      <c r="F33" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="126"/>
-      <c r="H33" s="127"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="120"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="145" t="s">
+      <c r="D34" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="145"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="146"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
     </row>
     <row r="35" spans="1:8" ht="24.75" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="109" t="s">
+      <c r="D35" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="110"/>
-      <c r="F35" s="133" t="s">
+      <c r="E35" s="151"/>
+      <c r="F35" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="G35" s="134"/>
-      <c r="H35" s="135"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="125"/>
     </row>
     <row r="36" spans="1:8" s="19" customFormat="1" ht="27.75" customHeight="1">
-      <c r="D36" s="111" t="s">
+      <c r="D36" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="112"/>
-      <c r="F36" s="133" t="s">
+      <c r="E36" s="157"/>
+      <c r="F36" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="G36" s="134"/>
-      <c r="H36" s="135"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="125"/>
     </row>
     <row r="37" spans="1:8" ht="24.75" customHeight="1">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="109" t="s">
+      <c r="D37" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="110"/>
-      <c r="F37" s="133" t="s">
-        <v>104</v>
-      </c>
-      <c r="G37" s="134"/>
-      <c r="H37" s="135"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="123" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="124"/>
+      <c r="H37" s="125"/>
     </row>
     <row r="38" spans="1:8" ht="42" customHeight="1">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="109" t="s">
+      <c r="D38" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="110"/>
-      <c r="F38" s="133" t="s">
+      <c r="E38" s="151"/>
+      <c r="F38" s="123" t="s">
         <v>98</v>
       </c>
-      <c r="G38" s="134"/>
-      <c r="H38" s="135"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="125"/>
     </row>
     <row r="39" spans="1:8" ht="354" customHeight="1">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="101" t="s">
+      <c r="D39" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="102"/>
-      <c r="F39" s="136" t="s">
-        <v>138</v>
-      </c>
-      <c r="G39" s="138"/>
-      <c r="H39" s="138"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" s="134"/>
+      <c r="H39" s="134"/>
     </row>
     <row r="40" spans="1:8" s="19" customFormat="1" ht="25.5" customHeight="1">
-      <c r="D40" s="107" t="s">
+      <c r="D40" s="154" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="108"/>
-      <c r="F40" s="139" t="s">
+      <c r="E40" s="155"/>
+      <c r="F40" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
+      <c r="G40" s="134"/>
+      <c r="H40" s="134"/>
     </row>
     <row r="41" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D41" s="107" t="s">
+      <c r="D41" s="154" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="108"/>
-      <c r="F41" s="136" t="s">
+      <c r="E41" s="155"/>
+      <c r="F41" s="132" t="s">
         <v>86</v>
       </c>
-      <c r="G41" s="137"/>
-      <c r="H41" s="137"/>
+      <c r="G41" s="133"/>
+      <c r="H41" s="133"/>
     </row>
     <row r="42" spans="1:8" s="19" customFormat="1" ht="24" customHeight="1">
-      <c r="D42" s="111" t="s">
+      <c r="D42" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="E42" s="112"/>
-      <c r="F42" s="136" t="s">
+      <c r="E42" s="157"/>
+      <c r="F42" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="133"/>
     </row>
     <row r="43" spans="1:8" s="19" customFormat="1" ht="25.5" customHeight="1">
-      <c r="D43" s="111" t="s">
+      <c r="D43" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="E43" s="112"/>
-      <c r="F43" s="136" t="s">
+      <c r="E43" s="157"/>
+      <c r="F43" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="G43" s="137"/>
-      <c r="H43" s="137"/>
+      <c r="G43" s="133"/>
+      <c r="H43" s="133"/>
     </row>
     <row r="44" spans="1:8" s="19" customFormat="1">
       <c r="D44" s="51"/>
       <c r="E44" s="51"/>
       <c r="F44" s="51"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="87"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
     </row>
     <row r="45" spans="1:8" ht="13.5">
       <c r="A45" s="7"/>
@@ -2976,130 +3400,130 @@
       <c r="C45" s="7"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
     </row>
     <row r="46" spans="1:8" s="19" customFormat="1" ht="16.5" customHeight="1">
-      <c r="D46" s="128" t="s">
-        <v>111</v>
-      </c>
-      <c r="E46" s="128"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="128"/>
-      <c r="H46" s="128"/>
+      <c r="D46" s="114" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
     </row>
     <row r="47" spans="1:8" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D47" s="103" t="s">
+      <c r="D47" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="104"/>
-      <c r="F47" s="129" t="s">
+      <c r="E47" s="138"/>
+      <c r="F47" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="G47" s="129"/>
-      <c r="H47" s="129"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="115"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="123" t="s">
+      <c r="D48" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="123"/>
-      <c r="F48" s="124"/>
-      <c r="G48" s="124"/>
-      <c r="H48" s="124"/>
-    </row>
-    <row r="49" spans="1:255" s="69" customFormat="1">
-      <c r="A49" s="68"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="101" t="s">
+      <c r="E48" s="116"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="117"/>
+    </row>
+    <row r="49" spans="1:255" s="68" customFormat="1">
+      <c r="A49" s="67"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="102"/>
-      <c r="F49" s="125" t="s">
+      <c r="E49" s="153"/>
+      <c r="F49" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="G49" s="126"/>
-      <c r="H49" s="127"/>
-    </row>
-    <row r="50" spans="1:255" s="69" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="68"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="107" t="s">
+      <c r="G49" s="119"/>
+      <c r="H49" s="120"/>
+    </row>
+    <row r="50" spans="1:255" s="68" customFormat="1" ht="12" customHeight="1">
+      <c r="A50" s="67"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="108"/>
-      <c r="F50" s="125" t="s">
+      <c r="E50" s="155"/>
+      <c r="F50" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="G50" s="126"/>
-      <c r="H50" s="127"/>
-    </row>
-    <row r="51" spans="1:255" s="69" customFormat="1">
-      <c r="A51" s="68"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="123" t="s">
+      <c r="G50" s="119"/>
+      <c r="H50" s="120"/>
+    </row>
+    <row r="51" spans="1:255" s="68" customFormat="1">
+      <c r="A51" s="67"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="123"/>
-      <c r="F51" s="124"/>
-      <c r="G51" s="124"/>
-      <c r="H51" s="124"/>
-    </row>
-    <row r="52" spans="1:255" s="69" customFormat="1">
-      <c r="A52" s="68"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="101" t="s">
+      <c r="E51" s="116"/>
+      <c r="F51" s="117"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="117"/>
+    </row>
+    <row r="52" spans="1:255" s="68" customFormat="1">
+      <c r="A52" s="67"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="102"/>
-      <c r="F52" s="125" t="s">
-        <v>112</v>
-      </c>
-      <c r="G52" s="126"/>
-      <c r="H52" s="127"/>
-    </row>
-    <row r="53" spans="1:255" s="69" customFormat="1">
-      <c r="A53" s="68"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="101" t="s">
+      <c r="E52" s="153"/>
+      <c r="F52" s="118" t="s">
+        <v>105</v>
+      </c>
+      <c r="G52" s="119"/>
+      <c r="H52" s="120"/>
+    </row>
+    <row r="53" spans="1:255" s="68" customFormat="1">
+      <c r="A53" s="67"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="102"/>
-      <c r="F53" s="125" t="s">
+      <c r="E53" s="153"/>
+      <c r="F53" s="118" t="s">
         <v>88</v>
       </c>
-      <c r="G53" s="126"/>
-      <c r="H53" s="127"/>
-    </row>
-    <row r="54" spans="1:255" s="69" customFormat="1">
-      <c r="A54" s="68"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="101" t="s">
+      <c r="G53" s="119"/>
+      <c r="H53" s="120"/>
+    </row>
+    <row r="54" spans="1:255" s="68" customFormat="1">
+      <c r="A54" s="67"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="102"/>
-      <c r="F54" s="125" t="s">
+      <c r="E54" s="153"/>
+      <c r="F54" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="G54" s="126"/>
-      <c r="H54" s="127"/>
+      <c r="G54" s="119"/>
+      <c r="H54" s="120"/>
     </row>
     <row r="55" spans="1:255" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="89"/>
-      <c r="G55" s="89"/>
-      <c r="H55" s="89"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
     </row>
     <row r="56" spans="1:255" ht="13.5">
       <c r="A56" s="7"/>
@@ -3107,69 +3531,69 @@
       <c r="C56" s="7"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
     </row>
     <row r="57" spans="1:255" s="19" customFormat="1" ht="16.5" customHeight="1">
-      <c r="D57" s="128" t="s">
+      <c r="D57" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="128"/>
-      <c r="F57" s="128"/>
-      <c r="G57" s="128"/>
-      <c r="H57" s="128"/>
+      <c r="E57" s="114"/>
+      <c r="F57" s="114"/>
+      <c r="G57" s="114"/>
+      <c r="H57" s="114"/>
     </row>
     <row r="58" spans="1:255" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D58" s="103" t="s">
+      <c r="D58" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="E58" s="104"/>
-      <c r="F58" s="129" t="s">
+      <c r="E58" s="138"/>
+      <c r="F58" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="G58" s="129"/>
-      <c r="H58" s="129"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="115"/>
     </row>
     <row r="59" spans="1:255">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
-      <c r="D59" s="123" t="s">
+      <c r="D59" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="E59" s="123"/>
-      <c r="F59" s="124"/>
-      <c r="G59" s="124"/>
-      <c r="H59" s="124"/>
-    </row>
-    <row r="60" spans="1:255" s="70" customFormat="1">
+      <c r="E59" s="116"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="117"/>
+      <c r="H59" s="117"/>
+    </row>
+    <row r="60" spans="1:255" s="69" customFormat="1">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
-      <c r="D60" s="101" t="s">
+      <c r="D60" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="E60" s="102"/>
-      <c r="F60" s="125" t="s">
+      <c r="E60" s="153"/>
+      <c r="F60" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="G60" s="126"/>
-      <c r="H60" s="127"/>
-    </row>
-    <row r="61" spans="1:255" s="70" customFormat="1">
+      <c r="G60" s="119"/>
+      <c r="H60" s="120"/>
+    </row>
+    <row r="61" spans="1:255" s="69" customFormat="1">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
-      <c r="D61" s="101" t="s">
+      <c r="D61" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="E61" s="102"/>
-      <c r="F61" s="125" t="s">
+      <c r="E61" s="153"/>
+      <c r="F61" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="G61" s="126"/>
-      <c r="H61" s="127"/>
+      <c r="G61" s="119"/>
+      <c r="H61" s="120"/>
     </row>
     <row r="62" spans="1:255" ht="18" customHeight="1">
       <c r="A62" s="7"/>
@@ -3178,17 +3602,17 @@
       <c r="D62" s="51"/>
       <c r="E62" s="51"/>
       <c r="F62" s="52"/>
-      <c r="G62" s="87"/>
-      <c r="H62" s="87"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
     </row>
     <row r="63" spans="1:255" s="19" customFormat="1" ht="13.5" customHeight="1">
-      <c r="D63" s="128" t="s">
+      <c r="D63" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="E63" s="128"/>
-      <c r="F63" s="128"/>
-      <c r="G63" s="128"/>
-      <c r="H63" s="128"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
+      <c r="G63" s="114"/>
+      <c r="H63" s="114"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
@@ -3440,83 +3864,83 @@
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
-      <c r="D64" s="103" t="s">
+      <c r="D64" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="E64" s="104"/>
-      <c r="F64" s="129" t="s">
+      <c r="E64" s="138"/>
+      <c r="F64" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="G64" s="129"/>
-      <c r="H64" s="129"/>
+      <c r="G64" s="115"/>
+      <c r="H64" s="115"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
-      <c r="D65" s="123" t="s">
+      <c r="D65" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="E65" s="123"/>
-      <c r="F65" s="124"/>
-      <c r="G65" s="124"/>
-      <c r="H65" s="124"/>
+      <c r="E65" s="116"/>
+      <c r="F65" s="117"/>
+      <c r="G65" s="117"/>
+      <c r="H65" s="117"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
-      <c r="D66" s="105" t="s">
+      <c r="D66" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="106"/>
-      <c r="F66" s="125" t="s">
-        <v>113</v>
-      </c>
-      <c r="G66" s="126"/>
-      <c r="H66" s="127"/>
+      <c r="E66" s="127"/>
+      <c r="F66" s="118" t="s">
+        <v>106</v>
+      </c>
+      <c r="G66" s="119"/>
+      <c r="H66" s="120"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
-      <c r="D67" s="105" t="s">
+      <c r="D67" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="E67" s="106"/>
-      <c r="F67" s="125" t="s">
-        <v>114</v>
-      </c>
-      <c r="G67" s="126"/>
-      <c r="H67" s="127"/>
+      <c r="E67" s="127"/>
+      <c r="F67" s="118" t="s">
+        <v>107</v>
+      </c>
+      <c r="G67" s="119"/>
+      <c r="H67" s="120"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
-      <c r="D68" s="105" t="s">
+      <c r="D68" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="E68" s="106"/>
-      <c r="F68" s="125" t="s">
-        <v>115</v>
-      </c>
-      <c r="G68" s="126"/>
-      <c r="H68" s="127"/>
+      <c r="E68" s="127"/>
+      <c r="F68" s="118" t="s">
+        <v>108</v>
+      </c>
+      <c r="G68" s="119"/>
+      <c r="H68" s="120"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
-      <c r="D69" s="105" t="s">
+      <c r="D69" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="E69" s="106"/>
-      <c r="F69" s="125" t="s">
-        <v>116</v>
-      </c>
-      <c r="G69" s="126"/>
-      <c r="H69" s="127"/>
+      <c r="E69" s="127"/>
+      <c r="F69" s="118" t="s">
+        <v>109</v>
+      </c>
+      <c r="G69" s="119"/>
+      <c r="H69" s="120"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="15"/>
@@ -3562,9 +3986,9 @@
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
-      <c r="D74" s="144"/>
-      <c r="E74" s="144"/>
-      <c r="F74" s="144"/>
+      <c r="D74" s="111"/>
+      <c r="E74" s="111"/>
+      <c r="F74" s="111"/>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
     </row>
@@ -3592,9 +4016,9 @@
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
-      <c r="D77" s="144"/>
-      <c r="E77" s="144"/>
-      <c r="F77" s="144"/>
+      <c r="D77" s="111"/>
+      <c r="E77" s="111"/>
+      <c r="F77" s="111"/>
       <c r="G77" s="23"/>
       <c r="H77" s="17"/>
     </row>
@@ -3642,9 +4066,9 @@
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
-      <c r="D82" s="144"/>
-      <c r="E82" s="144"/>
-      <c r="F82" s="144"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
       <c r="G82" s="23"/>
       <c r="H82" s="17"/>
     </row>
@@ -3709,9 +4133,9 @@
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
-      <c r="D89" s="144"/>
-      <c r="E89" s="144"/>
-      <c r="F89" s="144"/>
+      <c r="D89" s="111"/>
+      <c r="E89" s="111"/>
+      <c r="F89" s="111"/>
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
     </row>
@@ -3719,9 +4143,9 @@
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
-      <c r="D90" s="144"/>
-      <c r="E90" s="144"/>
-      <c r="F90" s="144"/>
+      <c r="D90" s="111"/>
+      <c r="E90" s="111"/>
+      <c r="F90" s="111"/>
       <c r="G90" s="17"/>
       <c r="H90" s="17"/>
     </row>
@@ -3729,9 +4153,9 @@
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
-      <c r="D91" s="144"/>
-      <c r="E91" s="144"/>
-      <c r="F91" s="144"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="111"/>
+      <c r="F91" s="111"/>
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
     </row>
@@ -3739,9 +4163,9 @@
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
-      <c r="D92" s="144"/>
-      <c r="E92" s="144"/>
-      <c r="F92" s="144"/>
+      <c r="D92" s="111"/>
+      <c r="E92" s="111"/>
+      <c r="F92" s="111"/>
       <c r="G92" s="23"/>
       <c r="H92" s="17"/>
     </row>
@@ -3990,8 +4414,8 @@
       <c r="D117" s="32"/>
       <c r="E117" s="32"/>
       <c r="F117" s="17"/>
-      <c r="G117" s="147"/>
-      <c r="H117" s="147"/>
+      <c r="G117" s="110"/>
+      <c r="H117" s="110"/>
     </row>
     <row r="118" spans="1:8" ht="18.75" customHeight="1">
       <c r="A118" s="15"/>
@@ -4277,11 +4701,11 @@
       <c r="A146" s="17"/>
       <c r="B146" s="17"/>
       <c r="C146" s="17"/>
-      <c r="D146" s="148"/>
-      <c r="E146" s="148"/>
-      <c r="F146" s="148"/>
-      <c r="G146" s="148"/>
-      <c r="H146" s="148"/>
+      <c r="D146" s="112"/>
+      <c r="E146" s="112"/>
+      <c r="F146" s="112"/>
+      <c r="G146" s="112"/>
+      <c r="H146" s="112"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="17"/>
@@ -4299,9 +4723,9 @@
       <c r="C148" s="17"/>
       <c r="D148" s="42"/>
       <c r="E148" s="42"/>
-      <c r="F148" s="149"/>
-      <c r="G148" s="149"/>
-      <c r="H148" s="149"/>
+      <c r="F148" s="106"/>
+      <c r="G148" s="106"/>
+      <c r="H148" s="106"/>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="17"/>
@@ -4319,9 +4743,9 @@
       <c r="C150" s="17"/>
       <c r="D150" s="44"/>
       <c r="E150" s="44"/>
-      <c r="F150" s="150"/>
-      <c r="G150" s="149"/>
-      <c r="H150" s="149"/>
+      <c r="F150" s="108"/>
+      <c r="G150" s="106"/>
+      <c r="H150" s="106"/>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="17"/>
@@ -4339,9 +4763,9 @@
       <c r="C152" s="17"/>
       <c r="D152" s="42"/>
       <c r="E152" s="42"/>
-      <c r="F152" s="149"/>
-      <c r="G152" s="149"/>
-      <c r="H152" s="149"/>
+      <c r="F152" s="106"/>
+      <c r="G152" s="106"/>
+      <c r="H152" s="106"/>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="17"/>
@@ -4359,9 +4783,9 @@
       <c r="C154" s="17"/>
       <c r="D154" s="44"/>
       <c r="E154" s="44"/>
-      <c r="F154" s="150"/>
-      <c r="G154" s="149"/>
-      <c r="H154" s="149"/>
+      <c r="F154" s="108"/>
+      <c r="G154" s="106"/>
+      <c r="H154" s="106"/>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="17"/>
@@ -4389,9 +4813,9 @@
       <c r="C157" s="17"/>
       <c r="D157" s="42"/>
       <c r="E157" s="42"/>
-      <c r="F157" s="149"/>
-      <c r="G157" s="149"/>
-      <c r="H157" s="149"/>
+      <c r="F157" s="106"/>
+      <c r="G157" s="106"/>
+      <c r="H157" s="106"/>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="17"/>
@@ -4409,9 +4833,9 @@
       <c r="C159" s="17"/>
       <c r="D159" s="44"/>
       <c r="E159" s="44"/>
-      <c r="F159" s="150"/>
-      <c r="G159" s="149"/>
-      <c r="H159" s="149"/>
+      <c r="F159" s="108"/>
+      <c r="G159" s="106"/>
+      <c r="H159" s="106"/>
     </row>
     <row r="160" spans="1:8" ht="90" customHeight="1">
       <c r="A160" s="17"/>
@@ -4419,9 +4843,9 @@
       <c r="C160" s="17"/>
       <c r="D160" s="44"/>
       <c r="E160" s="44"/>
-      <c r="F160" s="150"/>
-      <c r="G160" s="149"/>
-      <c r="H160" s="149"/>
+      <c r="F160" s="108"/>
+      <c r="G160" s="106"/>
+      <c r="H160" s="106"/>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="17"/>
@@ -4429,9 +4853,9 @@
       <c r="C161" s="17"/>
       <c r="D161" s="44"/>
       <c r="E161" s="44"/>
-      <c r="F161" s="151"/>
-      <c r="G161" s="147"/>
-      <c r="H161" s="147"/>
+      <c r="F161" s="109"/>
+      <c r="G161" s="110"/>
+      <c r="H161" s="110"/>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="17"/>
@@ -4439,8 +4863,8 @@
       <c r="C162" s="17"/>
       <c r="D162" s="46"/>
       <c r="E162" s="46"/>
-      <c r="F162" s="152"/>
-      <c r="G162" s="152"/>
+      <c r="F162" s="104"/>
+      <c r="G162" s="104"/>
       <c r="H162" s="34"/>
     </row>
     <row r="163" spans="1:8">
@@ -4449,8 +4873,8 @@
       <c r="C163" s="17"/>
       <c r="D163" s="46"/>
       <c r="E163" s="46"/>
-      <c r="F163" s="152"/>
-      <c r="G163" s="152"/>
+      <c r="F163" s="104"/>
+      <c r="G163" s="104"/>
       <c r="H163" s="34"/>
     </row>
     <row r="164" spans="1:8">
@@ -4459,8 +4883,8 @@
       <c r="C164" s="17"/>
       <c r="D164" s="46"/>
       <c r="E164" s="46"/>
-      <c r="F164" s="152"/>
-      <c r="G164" s="152"/>
+      <c r="F164" s="104"/>
+      <c r="G164" s="104"/>
       <c r="H164" s="34"/>
     </row>
     <row r="165" spans="1:8">
@@ -4469,8 +4893,8 @@
       <c r="C165" s="17"/>
       <c r="D165" s="46"/>
       <c r="E165" s="46"/>
-      <c r="F165" s="152"/>
-      <c r="G165" s="152"/>
+      <c r="F165" s="104"/>
+      <c r="G165" s="104"/>
       <c r="H165" s="34"/>
     </row>
     <row r="166" spans="1:8">
@@ -4479,8 +4903,8 @@
       <c r="C166" s="17"/>
       <c r="D166" s="46"/>
       <c r="E166" s="46"/>
-      <c r="F166" s="152"/>
-      <c r="G166" s="152"/>
+      <c r="F166" s="104"/>
+      <c r="G166" s="104"/>
       <c r="H166" s="34"/>
     </row>
     <row r="167" spans="1:8">
@@ -4489,8 +4913,8 @@
       <c r="C167" s="17"/>
       <c r="D167" s="46"/>
       <c r="E167" s="46"/>
-      <c r="F167" s="152"/>
-      <c r="G167" s="152"/>
+      <c r="F167" s="104"/>
+      <c r="G167" s="104"/>
       <c r="H167" s="34"/>
     </row>
     <row r="168" spans="1:8">
@@ -4499,8 +4923,8 @@
       <c r="C168" s="17"/>
       <c r="D168" s="46"/>
       <c r="E168" s="46"/>
-      <c r="F168" s="152"/>
-      <c r="G168" s="152"/>
+      <c r="F168" s="104"/>
+      <c r="G168" s="104"/>
       <c r="H168" s="48"/>
     </row>
     <row r="169" spans="1:8">
@@ -4509,8 +4933,8 @@
       <c r="C169" s="17"/>
       <c r="D169" s="46"/>
       <c r="E169" s="46"/>
-      <c r="F169" s="152"/>
-      <c r="G169" s="152"/>
+      <c r="F169" s="104"/>
+      <c r="G169" s="104"/>
       <c r="H169" s="48"/>
     </row>
     <row r="170" spans="1:8">
@@ -4519,8 +4943,8 @@
       <c r="C170" s="17"/>
       <c r="D170" s="46"/>
       <c r="E170" s="46"/>
-      <c r="F170" s="152"/>
-      <c r="G170" s="152"/>
+      <c r="F170" s="104"/>
+      <c r="G170" s="104"/>
       <c r="H170" s="48"/>
     </row>
     <row r="171" spans="1:8">
@@ -4529,8 +4953,8 @@
       <c r="C171" s="17"/>
       <c r="D171" s="46"/>
       <c r="E171" s="46"/>
-      <c r="F171" s="152"/>
-      <c r="G171" s="152"/>
+      <c r="F171" s="104"/>
+      <c r="G171" s="104"/>
       <c r="H171" s="48"/>
     </row>
     <row r="172" spans="1:8" ht="26.25" customHeight="1">
@@ -4539,9 +4963,9 @@
       <c r="C172" s="17"/>
       <c r="D172" s="46"/>
       <c r="E172" s="46"/>
-      <c r="F172" s="153"/>
-      <c r="G172" s="153"/>
-      <c r="H172" s="153"/>
+      <c r="F172" s="107"/>
+      <c r="G172" s="107"/>
+      <c r="H172" s="107"/>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="17"/>
@@ -4607,9 +5031,9 @@
       <c r="A179" s="17"/>
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
-      <c r="D179" s="152"/>
-      <c r="E179" s="152"/>
-      <c r="F179" s="152"/>
+      <c r="D179" s="104"/>
+      <c r="E179" s="104"/>
+      <c r="F179" s="104"/>
       <c r="G179" s="17"/>
       <c r="H179" s="17"/>
     </row>
@@ -4617,9 +5041,9 @@
       <c r="A180" s="17"/>
       <c r="B180" s="17"/>
       <c r="C180" s="17"/>
-      <c r="D180" s="152"/>
-      <c r="E180" s="152"/>
-      <c r="F180" s="152"/>
+      <c r="D180" s="104"/>
+      <c r="E180" s="104"/>
+      <c r="F180" s="104"/>
       <c r="G180" s="17"/>
       <c r="H180" s="17"/>
     </row>
@@ -4627,9 +5051,9 @@
       <c r="A181" s="17"/>
       <c r="B181" s="17"/>
       <c r="C181" s="17"/>
-      <c r="D181" s="152"/>
-      <c r="E181" s="152"/>
-      <c r="F181" s="152"/>
+      <c r="D181" s="104"/>
+      <c r="E181" s="104"/>
+      <c r="F181" s="104"/>
       <c r="G181" s="17"/>
       <c r="H181" s="17"/>
     </row>
@@ -4637,9 +5061,9 @@
       <c r="A182" s="17"/>
       <c r="B182" s="17"/>
       <c r="C182" s="17"/>
-      <c r="D182" s="152"/>
-      <c r="E182" s="152"/>
-      <c r="F182" s="152"/>
+      <c r="D182" s="104"/>
+      <c r="E182" s="104"/>
+      <c r="F182" s="104"/>
       <c r="G182" s="17"/>
       <c r="H182" s="17"/>
     </row>
@@ -4647,9 +5071,9 @@
       <c r="A183" s="17"/>
       <c r="B183" s="17"/>
       <c r="C183" s="17"/>
-      <c r="D183" s="152"/>
-      <c r="E183" s="152"/>
-      <c r="F183" s="152"/>
+      <c r="D183" s="104"/>
+      <c r="E183" s="104"/>
+      <c r="F183" s="104"/>
       <c r="G183" s="17"/>
       <c r="H183" s="17"/>
     </row>
@@ -4657,9 +5081,9 @@
       <c r="A184" s="17"/>
       <c r="B184" s="17"/>
       <c r="C184" s="17"/>
-      <c r="D184" s="152"/>
-      <c r="E184" s="152"/>
-      <c r="F184" s="152"/>
+      <c r="D184" s="104"/>
+      <c r="E184" s="104"/>
+      <c r="F184" s="104"/>
       <c r="G184" s="17"/>
       <c r="H184" s="17"/>
     </row>
@@ -4667,9 +5091,9 @@
       <c r="A185" s="17"/>
       <c r="B185" s="17"/>
       <c r="C185" s="17"/>
-      <c r="D185" s="152"/>
-      <c r="E185" s="152"/>
-      <c r="F185" s="152"/>
+      <c r="D185" s="104"/>
+      <c r="E185" s="104"/>
+      <c r="F185" s="104"/>
       <c r="G185" s="17"/>
       <c r="H185" s="17"/>
     </row>
@@ -4677,9 +5101,9 @@
       <c r="A186" s="17"/>
       <c r="B186" s="17"/>
       <c r="C186" s="17"/>
-      <c r="D186" s="152"/>
-      <c r="E186" s="152"/>
-      <c r="F186" s="152"/>
+      <c r="D186" s="104"/>
+      <c r="E186" s="104"/>
+      <c r="F186" s="104"/>
       <c r="G186" s="17"/>
       <c r="H186" s="17"/>
     </row>
@@ -4687,9 +5111,9 @@
       <c r="A187" s="17"/>
       <c r="B187" s="17"/>
       <c r="C187" s="17"/>
-      <c r="D187" s="152"/>
-      <c r="E187" s="152"/>
-      <c r="F187" s="152"/>
+      <c r="D187" s="104"/>
+      <c r="E187" s="104"/>
+      <c r="F187" s="104"/>
       <c r="G187" s="17"/>
       <c r="H187" s="17"/>
     </row>
@@ -4697,9 +5121,9 @@
       <c r="A188" s="17"/>
       <c r="B188" s="17"/>
       <c r="C188" s="17"/>
-      <c r="D188" s="152"/>
-      <c r="E188" s="152"/>
-      <c r="F188" s="152"/>
+      <c r="D188" s="104"/>
+      <c r="E188" s="104"/>
+      <c r="F188" s="104"/>
       <c r="G188" s="17"/>
       <c r="H188" s="17"/>
     </row>
@@ -4707,9 +5131,9 @@
       <c r="A189" s="17"/>
       <c r="B189" s="17"/>
       <c r="C189" s="17"/>
-      <c r="D189" s="152"/>
-      <c r="E189" s="152"/>
-      <c r="F189" s="152"/>
+      <c r="D189" s="104"/>
+      <c r="E189" s="104"/>
+      <c r="F189" s="104"/>
       <c r="G189" s="17"/>
       <c r="H189" s="17"/>
     </row>
@@ -4717,9 +5141,9 @@
       <c r="A190" s="17"/>
       <c r="B190" s="17"/>
       <c r="C190" s="17"/>
-      <c r="D190" s="152"/>
-      <c r="E190" s="152"/>
-      <c r="F190" s="152"/>
+      <c r="D190" s="104"/>
+      <c r="E190" s="104"/>
+      <c r="F190" s="104"/>
       <c r="G190" s="17"/>
       <c r="H190" s="17"/>
     </row>
@@ -4737,21 +5161,21 @@
       <c r="A192" s="44"/>
       <c r="B192" s="44"/>
       <c r="C192" s="44"/>
-      <c r="D192" s="149"/>
-      <c r="E192" s="149"/>
-      <c r="F192" s="149"/>
-      <c r="G192" s="149"/>
-      <c r="H192" s="149"/>
+      <c r="D192" s="106"/>
+      <c r="E192" s="106"/>
+      <c r="F192" s="106"/>
+      <c r="G192" s="106"/>
+      <c r="H192" s="106"/>
     </row>
     <row r="193" spans="1:8" ht="32.25" customHeight="1">
       <c r="A193" s="44"/>
       <c r="B193" s="44"/>
       <c r="C193" s="44"/>
-      <c r="D193" s="149"/>
-      <c r="E193" s="149"/>
-      <c r="F193" s="149"/>
-      <c r="G193" s="149"/>
-      <c r="H193" s="149"/>
+      <c r="D193" s="106"/>
+      <c r="E193" s="106"/>
+      <c r="F193" s="106"/>
+      <c r="G193" s="106"/>
+      <c r="H193" s="106"/>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="17"/>
@@ -4787,154 +5211,44 @@
       <c r="A197" s="44"/>
       <c r="B197" s="44"/>
       <c r="C197" s="44"/>
-      <c r="D197" s="154"/>
-      <c r="E197" s="154"/>
-      <c r="F197" s="154"/>
-      <c r="G197" s="154"/>
-      <c r="H197" s="154"/>
+      <c r="D197" s="105"/>
+      <c r="E197" s="105"/>
+      <c r="F197" s="105"/>
+      <c r="G197" s="105"/>
+      <c r="H197" s="105"/>
     </row>
     <row r="198" spans="1:8" ht="17.25" customHeight="1">
       <c r="A198" s="44"/>
       <c r="B198" s="44"/>
       <c r="C198" s="44"/>
-      <c r="D198" s="154"/>
-      <c r="E198" s="154"/>
-      <c r="F198" s="154"/>
-      <c r="G198" s="154"/>
-      <c r="H198" s="154"/>
+      <c r="D198" s="105"/>
+      <c r="E198" s="105"/>
+      <c r="F198" s="105"/>
+      <c r="G198" s="105"/>
+      <c r="H198" s="105"/>
     </row>
     <row r="199" spans="1:8" ht="18" customHeight="1">
       <c r="A199" s="44"/>
       <c r="B199" s="44"/>
       <c r="C199" s="44"/>
-      <c r="D199" s="154"/>
-      <c r="E199" s="154"/>
-      <c r="F199" s="154"/>
-      <c r="G199" s="154"/>
-      <c r="H199" s="154"/>
+      <c r="D199" s="105"/>
+      <c r="E199" s="105"/>
+      <c r="F199" s="105"/>
+      <c r="G199" s="105"/>
+      <c r="H199" s="105"/>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="44"/>
       <c r="B200" s="44"/>
       <c r="C200" s="44"/>
-      <c r="D200" s="154"/>
-      <c r="E200" s="154"/>
-      <c r="F200" s="154"/>
-      <c r="G200" s="154"/>
-      <c r="H200" s="154"/>
+      <c r="D200" s="105"/>
+      <c r="E200" s="105"/>
+      <c r="F200" s="105"/>
+      <c r="G200" s="105"/>
+      <c r="H200" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="D181:F181"/>
-    <mergeCell ref="D182:F182"/>
-    <mergeCell ref="D199:H199"/>
-    <mergeCell ref="D200:H200"/>
-    <mergeCell ref="D189:F189"/>
-    <mergeCell ref="D190:F190"/>
-    <mergeCell ref="D192:H192"/>
-    <mergeCell ref="D193:H193"/>
-    <mergeCell ref="D183:F183"/>
-    <mergeCell ref="D184:F184"/>
-    <mergeCell ref="D197:H197"/>
-    <mergeCell ref="D198:H198"/>
-    <mergeCell ref="D185:F185"/>
-    <mergeCell ref="D186:F186"/>
-    <mergeCell ref="D187:F187"/>
-    <mergeCell ref="D188:F188"/>
-    <mergeCell ref="F171:G171"/>
-    <mergeCell ref="F172:H172"/>
-    <mergeCell ref="D179:F179"/>
-    <mergeCell ref="D180:F180"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="F167:G167"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="F169:G169"/>
-    <mergeCell ref="F170:G170"/>
-    <mergeCell ref="F152:H152"/>
-    <mergeCell ref="F154:H154"/>
-    <mergeCell ref="F157:H157"/>
-    <mergeCell ref="F159:H159"/>
-    <mergeCell ref="F160:H160"/>
-    <mergeCell ref="F161:H161"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="F163:G163"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="D146:H146"/>
-    <mergeCell ref="F148:H148"/>
-    <mergeCell ref="F150:H150"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D64:E64"/>
@@ -4959,6 +5273,116 @@
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="F47:H47"/>
     <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="D65:H65"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="D146:H146"/>
+    <mergeCell ref="F148:H148"/>
+    <mergeCell ref="F150:H150"/>
+    <mergeCell ref="F152:H152"/>
+    <mergeCell ref="F154:H154"/>
+    <mergeCell ref="F157:H157"/>
+    <mergeCell ref="F159:H159"/>
+    <mergeCell ref="F160:H160"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="F171:G171"/>
+    <mergeCell ref="F172:H172"/>
+    <mergeCell ref="D179:F179"/>
+    <mergeCell ref="D180:F180"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="F167:G167"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="F169:G169"/>
+    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="D181:F181"/>
+    <mergeCell ref="D182:F182"/>
+    <mergeCell ref="D199:H199"/>
+    <mergeCell ref="D200:H200"/>
+    <mergeCell ref="D189:F189"/>
+    <mergeCell ref="D190:F190"/>
+    <mergeCell ref="D192:H192"/>
+    <mergeCell ref="D193:H193"/>
+    <mergeCell ref="D183:F183"/>
+    <mergeCell ref="D184:F184"/>
+    <mergeCell ref="D197:H197"/>
+    <mergeCell ref="D198:H198"/>
+    <mergeCell ref="D185:F185"/>
+    <mergeCell ref="D186:F186"/>
+    <mergeCell ref="D187:F187"/>
+    <mergeCell ref="D188:F188"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D85:E86">
@@ -4984,257 +5408,665 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="61" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="60" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="60" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" style="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="60" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="60" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="61" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="61" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" style="61" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="61"/>
+    <col min="1" max="1" width="3.28515625" style="60" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="59" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="59" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="59" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="59" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="60" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="60" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="60" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="B2" s="90"/>
-      <c r="C2" s="155" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="156"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="18">
-      <c r="B3" s="62"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="157" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="158"/>
-    </row>
-    <row r="5" spans="1:10" s="64" customFormat="1" ht="12.75" customHeight="1">
+      <c r="C4" s="160" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="161"/>
+    </row>
+    <row r="5" spans="1:10" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="159" t="s">
+      <c r="C5" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="163"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="62"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" thickBot="1">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+    </row>
+    <row r="7" spans="1:10" s="64" customFormat="1" ht="38.25">
+      <c r="B7" s="203" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="204" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="204" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="204" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="204" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="204" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="204" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="204" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="205" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="197" customFormat="1" ht="45" customHeight="1">
+      <c r="A8" s="197" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="192" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="198" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="185" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="199" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="199" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="200">
+        <v>42301</v>
+      </c>
+      <c r="H8" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="I8" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="J8" s="211" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="197" customFormat="1" ht="45" customHeight="1">
+      <c r="B9" s="193" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="198" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="186" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="199" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="199" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="200">
+        <v>42301</v>
+      </c>
+      <c r="H9" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="I9" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" s="211" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="197" customFormat="1" ht="45" customHeight="1">
+      <c r="B10" s="193" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="198" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="187" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="199" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="199" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="200">
+        <v>42301</v>
+      </c>
+      <c r="H10" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="I10" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="J10" s="211" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="197" customFormat="1" ht="45" customHeight="1">
+      <c r="B11" s="193" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="198" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="187" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="199" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="199" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="200">
+        <v>42301</v>
+      </c>
+      <c r="H11" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="I11" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="J11" s="211" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="197" customFormat="1" ht="45" customHeight="1">
+      <c r="B12" s="193" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="198" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="188" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="199" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="199" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="200">
+        <v>42301</v>
+      </c>
+      <c r="H12" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="I12" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="J12" s="211" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="197" customFormat="1" ht="45" customHeight="1">
+      <c r="B13" s="193" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="198" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="187" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="199" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="199" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="200">
+        <v>42301</v>
+      </c>
+      <c r="H13" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="I13" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="J13" s="211" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="197" customFormat="1" ht="45" customHeight="1">
+      <c r="B14" s="193" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="198" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="187" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="199" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="199" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="200">
+        <v>42301</v>
+      </c>
+      <c r="H14" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="I14" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="J14" s="211" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="197" customFormat="1" ht="45" customHeight="1">
+      <c r="B15" s="193" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="198" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="188" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="199" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="199" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="200">
+        <v>42301</v>
+      </c>
+      <c r="H15" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="I15" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="J15" s="211" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="197" customFormat="1" ht="45" customHeight="1">
+      <c r="B16" s="192" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="198" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="189" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="199" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="199" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="200">
+        <v>42301</v>
+      </c>
+      <c r="H16" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" s="211" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" s="197" customFormat="1" ht="45" customHeight="1">
+      <c r="B17" s="193" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="198" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="187" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="199" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="199" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="200">
+        <v>42301</v>
+      </c>
+      <c r="H17" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="I17" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" s="211" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" s="197" customFormat="1" ht="45" customHeight="1">
+      <c r="B18" s="193" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="198" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="187" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="160"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="63"/>
-    </row>
-    <row r="6" spans="1:10" ht="18">
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-    </row>
-    <row r="7" spans="1:10" s="65" customFormat="1" ht="38.25">
-      <c r="B7" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="75" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="76" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="93" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="96">
+      <c r="E18" s="199" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="199" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="200">
         <v>42301</v>
       </c>
-      <c r="H8" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="J8" s="94"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="76" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="96">
+      <c r="H18" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="I18" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" s="211" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" s="197" customFormat="1" ht="45" customHeight="1">
+      <c r="B19" s="193" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="198" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="187" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="199" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="199" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="200">
         <v>42301</v>
       </c>
-      <c r="H9" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="I9" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="J9" s="94"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="76" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="93" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="94" t="s">
+      <c r="H19" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="I19" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="211" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" s="197" customFormat="1" ht="45" customHeight="1">
+      <c r="B20" s="192" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="198" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="189" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="199" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="94" t="s">
+      <c r="F20" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="96">
+      <c r="G20" s="200">
         <v>42301</v>
       </c>
-      <c r="H10" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="J10" s="94"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="76" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="93" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="94" t="s">
+      <c r="H20" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="I20" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" s="211" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" s="197" customFormat="1" ht="45" customHeight="1">
+      <c r="B21" s="193" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="198" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="188" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="199" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="94" t="s">
+      <c r="F21" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="96">
+      <c r="G21" s="200">
         <v>42301</v>
       </c>
-      <c r="H11" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="I11" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="J11" s="94"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="94"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="94"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="94"/>
+      <c r="H21" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="I21" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" s="211" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" s="197" customFormat="1" ht="45" customHeight="1">
+      <c r="B22" s="192" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="198" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="189" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="199" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="199" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="200">
+        <v>42301</v>
+      </c>
+      <c r="H22" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" s="211" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" s="197" customFormat="1" ht="45" customHeight="1">
+      <c r="B23" s="193" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="198" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="187" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="199" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="199" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="200">
+        <v>42301</v>
+      </c>
+      <c r="H23" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="I23" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="J23" s="211" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" s="197" customFormat="1" ht="45" customHeight="1">
+      <c r="B24" s="193" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="198" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="187" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="199" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="199" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="200">
+        <v>42301</v>
+      </c>
+      <c r="H24" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="I24" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="J24" s="211" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" s="197" customFormat="1" ht="45" customHeight="1">
+      <c r="B25" s="193" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="198" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="190" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="199" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="199" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="200">
+        <v>42301</v>
+      </c>
+      <c r="H25" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="I25" s="202" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" s="211" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" s="197" customFormat="1" ht="45" customHeight="1" thickBot="1">
+      <c r="B26" s="194" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="206" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="191" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="207" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="207" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="208">
+        <v>42301</v>
+      </c>
+      <c r="H26" s="209" t="s">
+        <v>169</v>
+      </c>
+      <c r="I26" s="210" t="s">
+        <v>168</v>
+      </c>
+      <c r="J26" s="212" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="H27" s="195"/>
+      <c r="I27" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5244,13 +6076,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E26">
       <formula1>Origen</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F26">
       <formula1>Situacion</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C26">
       <formula1>TipoProyecto</formula1>
     </dataValidation>
   </dataValidations>
@@ -5272,78 +6104,78 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="61" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="60" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="60" customWidth="1"/>
-    <col min="4" max="4" width="58" style="60" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="61" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="61"/>
+    <col min="1" max="1" width="5.42578125" style="60" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="59" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="59" customWidth="1"/>
+    <col min="4" max="4" width="58" style="59" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="60" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1">
-      <c r="B2" s="161"/>
-      <c r="C2" s="155" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="172"/>
-      <c r="E2" s="156"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="159"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="168" t="str">
+      <c r="C4" s="166" t="str">
         <f>IF(NOT(ISBLANK('Requerimientos de Usuario'!C4)),'Requerimientos de Usuario'!C4," - ")</f>
         <v>Roger Apaestegui (Jefe de Proyecto)</v>
       </c>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-    </row>
-    <row r="5" spans="1:5" s="64" customFormat="1">
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+    </row>
+    <row r="5" spans="1:5" s="63" customFormat="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="168" t="str">
+      <c r="C5" s="166" t="str">
         <f>IF(NOT(ISBLANK('Requerimientos de Usuario'!C5)),'Requerimientos de Usuario'!C5," - ")</f>
         <v>Manuel Saenz Tarazona (MST E.I.R.L.)</v>
       </c>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1">
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="170" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="163"/>
-      <c r="D7" s="66" t="s">
+      <c r="C7" s="171"/>
+      <c r="D7" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="65" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5352,72 +6184,72 @@
         <v>1</v>
       </c>
       <c r="C8" s="165"/>
-      <c r="D8" s="173" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="171">
+      <c r="D8" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="91">
         <v>42287</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="164"/>
       <c r="C9" s="165"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="164"/>
       <c r="C10" s="165"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="164"/>
       <c r="C11" s="165"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="164"/>
       <c r="C12" s="165"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="164"/>
       <c r="C13" s="165"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="B14" s="166"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="164"/>
       <c r="C15" s="165"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="164"/>
       <c r="C16" s="165"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="164"/>
       <c r="C17" s="165"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5447,15 +6279,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59" style="60" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59" style="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -5473,52 +6305,52 @@
       <c r="C3"/>
     </row>
     <row r="4" spans="2:3" s="2" customFormat="1">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>130</v>
+      <c r="B5" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="76" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>132</v>
+      <c r="B6" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="76" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="76" t="s">
-        <v>134</v>
+      <c r="B7" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="53"/>
       <c r="E31" s="53"/>
     </row>
@@ -5538,12 +6370,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:G25"/>
+  <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B31" sqref="B31:E31"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5558,291 +6390,278 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" customFormat="1" ht="47.25" customHeight="1">
-      <c r="B2" s="190"/>
-      <c r="C2" s="191" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="193"/>
-    </row>
+      <c r="B2" s="96"/>
+      <c r="C2" s="175" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="177"/>
+    </row>
+    <row r="3" spans="2:6" ht="13.5" thickBot="1"/>
     <row r="4" spans="2:6" s="3" customFormat="1">
-      <c r="B4" s="194" t="s">
+      <c r="B4" s="213" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="195"/>
-      <c r="D4" s="56" t="s">
+      <c r="C4" s="214"/>
+      <c r="D4" s="215" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="216" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="63.75">
-      <c r="B5" s="196" t="s">
+      <c r="B5" s="217" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="197"/>
-      <c r="D5" s="174" t="s">
+      <c r="C5" s="178"/>
+      <c r="D5" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="174" t="s">
+      <c r="E5" s="232" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="175"/>
+      <c r="F5" s="218"/>
     </row>
     <row r="6" spans="2:6" ht="25.5">
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="217" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="197"/>
-      <c r="D6" s="177" t="s">
+      <c r="C6" s="178"/>
+      <c r="D6" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="177" t="s">
+      <c r="E6" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="175"/>
+      <c r="F6" s="218"/>
     </row>
     <row r="7" spans="2:6" ht="51">
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="219" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="177" t="s">
+      <c r="C7" s="172"/>
+      <c r="D7" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="176" t="s">
+      <c r="E7" s="233" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="175"/>
+      <c r="F7" s="218"/>
     </row>
     <row r="8" spans="2:6" ht="178.5">
-      <c r="B8" s="198" t="s">
+      <c r="B8" s="219" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="199"/>
-      <c r="D8" s="177" t="s">
+      <c r="C8" s="172"/>
+      <c r="D8" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="176" t="s">
+      <c r="E8" s="233" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="175"/>
+      <c r="F8" s="218"/>
     </row>
     <row r="9" spans="2:6" ht="38.25">
-      <c r="B9" s="198" t="s">
+      <c r="B9" s="219" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="199"/>
-      <c r="D9" s="177" t="s">
+      <c r="C9" s="172"/>
+      <c r="D9" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="176" t="s">
+      <c r="E9" s="233" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="175"/>
+      <c r="F9" s="218"/>
     </row>
     <row r="10" spans="2:6" ht="25.5">
-      <c r="B10" s="198" t="s">
+      <c r="B10" s="219" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="199"/>
-      <c r="D10" s="177" t="s">
+      <c r="C10" s="172"/>
+      <c r="D10" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="176" t="s">
+      <c r="E10" s="233" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="175"/>
+      <c r="F10" s="218"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="200" t="s">
+      <c r="B11" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="201"/>
+      <c r="C11" s="173"/>
       <c r="D11" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="177" t="s">
+      <c r="E11" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="176" t="s">
+      <c r="F11" s="221" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="25.5">
-      <c r="B12" s="204"/>
-      <c r="C12" s="205"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="178" t="s">
+      <c r="B12" s="222"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="177" t="s">
+      <c r="F12" s="223" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="204">
-      <c r="B13" s="198" t="s">
+      <c r="B13" s="219" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="199"/>
-      <c r="D13" s="177" t="s">
+      <c r="C13" s="172"/>
+      <c r="D13" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="177" t="s">
+      <c r="E13" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="175"/>
+      <c r="F13" s="218"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="200" t="s">
+      <c r="B14" s="220" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="201"/>
+      <c r="C14" s="173"/>
       <c r="D14" s="179" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="206" t="s">
+      <c r="E14" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="177" t="s">
+      <c r="F14" s="223" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="202"/>
-      <c r="C15" s="203"/>
+      <c r="B15" s="224"/>
+      <c r="C15" s="184"/>
       <c r="D15" s="181"/>
-      <c r="E15" s="206" t="s">
+      <c r="E15" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="177" t="s">
-        <v>117</v>
+      <c r="F15" s="223" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="202"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="206" t="s">
+      <c r="B16" s="224"/>
+      <c r="C16" s="184"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="176" t="s">
+      <c r="F16" s="221" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="25.5">
-      <c r="B17" s="202"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="206" t="s">
+      <c r="B17" s="224"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="177" t="s">
+      <c r="F17" s="223" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="25.5">
-      <c r="B18" s="204"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="188"/>
-      <c r="E18" s="206" t="s">
+      <c r="B18" s="222"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="177" t="s">
+      <c r="F18" s="223" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="89.25">
-      <c r="B19" s="198" t="s">
+      <c r="B19" s="219" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="199"/>
-      <c r="D19" s="189" t="s">
+      <c r="C19" s="172"/>
+      <c r="D19" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="177" t="s">
+      <c r="E19" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="175"/>
+      <c r="F19" s="218"/>
     </row>
     <row r="20" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B20" s="200" t="s">
+      <c r="B20" s="220" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="201"/>
+      <c r="C20" s="173"/>
       <c r="D20" s="179" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="208" t="s">
+      <c r="E20" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="225"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="224"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="226"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="224"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="180"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="202"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="207" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="183"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="202"/>
-      <c r="C22" s="203"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="208" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="183"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="202"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="207" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" s="183"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="202"/>
-      <c r="C24" s="203"/>
-      <c r="D24" s="181"/>
-      <c r="E24" s="182"/>
-      <c r="F24" s="183"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="204"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="184"/>
-      <c r="E25" s="207"/>
-      <c r="F25" s="185"/>
+      <c r="F22" s="226"/>
+    </row>
+    <row r="23" spans="2:6" ht="13.5" thickBot="1">
+      <c r="B23" s="227"/>
+      <c r="C23" s="228"/>
+      <c r="D23" s="229"/>
+      <c r="E23" s="230" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="231"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C23"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C12"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F20:F25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.67" right="0.75" top="0.79" bottom="0.7" header="0" footer="0.17"/>
